--- a/materials/specs/Green_Taxo.xlsx
+++ b/materials/specs/Green_Taxo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlorans\Documents\ClimateInvestingNLP\materials\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A025B537-684F-46AD-9A10-B92EB7AF4572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839A75D-6826-4840-BBAA-242CE5596367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5750" yWindow="100" windowWidth="16920" windowHeight="10450" xr2:uid="{4FC0EE15-120B-4526-9ADE-E0ED7501A6A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{4FC0EE15-120B-4526-9ADE-E0ED7501A6A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
   <si>
     <t>Type</t>
   </si>
@@ -423,6 +423,15 @@
   </si>
   <si>
     <t>Professional services related to energy performance of buildings</t>
+  </si>
+  <si>
+    <t>Electric vehicles</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>companies engaged in exploration &amp; production, refining &amp; marketing, and storage &amp; transportation of oil &amp; gas and coal &amp; consumable fuels. It also includes companies that offer oil &amp; gas equipment and services.</t>
   </si>
 </sst>
 </file>
@@ -438,12 +447,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -458,8 +473,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58CB6E-3A5C-483C-88CA-FB864E6C9536}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1574,6 +1590,25 @@
         <v>128</v>
       </c>
     </row>
+    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/materials/specs/Green_Taxo.xlsx
+++ b/materials/specs/Green_Taxo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlorans\Documents\ClimateInvestingNLP\materials\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D839A75D-6826-4840-BBAA-242CE5596367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EB36A-1FCF-4A76-A2B4-22A5F518FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{4FC0EE15-120B-4526-9ADE-E0ED7501A6A5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
   <si>
     <t>Type</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Manufacture of renewable energy technologies</t>
   </si>
   <si>
-    <t>Enabling</t>
-  </si>
-  <si>
     <t>Manufacture of equipment for the production and use of hydrogen</t>
   </si>
   <si>
@@ -110,54 +107,15 @@
     <t>Manufacture of technologies aimed at substantial GHG emission reductions in other sectors of the economy</t>
   </si>
   <si>
-    <t>Manufacture of cement</t>
-  </si>
-  <si>
-    <t>Manufacture of cement clinker, cement or alternative binder</t>
-  </si>
-  <si>
-    <t>Transitional</t>
-  </si>
-  <si>
-    <t>Manufacture of aluminium</t>
-  </si>
-  <si>
-    <t>Manufacture of aluminium through primary alumina (bauxite) process or secondary aluminium recycling</t>
-  </si>
-  <si>
-    <t>Manufacture of iron and steel</t>
-  </si>
-  <si>
     <t>Manufacture of hydrogen and hydrogen-based synthetic fuels.</t>
   </si>
   <si>
     <t>Manufacture of hydrogen</t>
   </si>
   <si>
-    <t>Manufacture of carbon black</t>
-  </si>
-  <si>
-    <t>Manufacture of soda ash</t>
-  </si>
-  <si>
-    <t>Manufacture of disodium carbonate (soda ash, sodium carbonate, carbonic acid disodium salt).</t>
-  </si>
-  <si>
-    <t>Manufacture of chlorine</t>
-  </si>
-  <si>
-    <t>Manufacture of organic basic chemicals</t>
-  </si>
-  <si>
     <t>Manufacture of anhydrous ammonia</t>
   </si>
   <si>
-    <t>Manufacture of plastics in primary form</t>
-  </si>
-  <si>
-    <t>Manufacture resins, plastics materials and non-vulcanisable thermoplastic elastomers, the mixing and blending of resins on a custom basis, as well as the manufacture of noncustomised synthetic resins</t>
-  </si>
-  <si>
     <t>Electricity generation using concentrated solar power (CSP) technology</t>
   </si>
   <si>
@@ -431,17 +389,73 @@
     <t>Brown</t>
   </si>
   <si>
-    <t>companies engaged in exploration &amp; production, refining &amp; marketing, and storage &amp; transportation of oil &amp; gas and coal &amp; consumable fuels. It also includes companies that offer oil &amp; gas equipment and services.</t>
+    <t>Oil &amp; Gas Drilling</t>
+  </si>
+  <si>
+    <t>Drilling contractors or owners of drilling rigs that contract their services for drilling wells</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Equipment &amp; Services</t>
+  </si>
+  <si>
+    <t>Manufacturers of equipment, including drilling rigs and equipment, and providers of supplies and services to companies involved in the drilling, evaluation and completion of oil and gas wells.</t>
+  </si>
+  <si>
+    <t>Integrated Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>Integrated oil companies engaged in the exploration &amp; production of oil and gas, as well as at least one other significant activity in either refining, marketing and transportation, or chemicals.</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Exploration &amp; Production</t>
+  </si>
+  <si>
+    <t>Companies engaged in the exploration and production of oil and gas not classified elsewhere.</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Refining &amp; Marketing</t>
+  </si>
+  <si>
+    <t>Companies engaged in the refining and marketing of oil, gas and/or refined products not classified in the Integrated Oil &amp; Gas or Independent Power Producers &amp; Energy Traders Sub-Industries.</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Storage &amp; Transportation</t>
+  </si>
+  <si>
+    <t>Companies engaged in the storage and/or transportation of oil, gas and/or refined products. Includes diversified midstream natural gas companies, oil and refined product pipelines, coal slurry pipelines and oil &amp; gas shipping companies.</t>
+  </si>
+  <si>
+    <t>Coal &amp; Consumable Fuels</t>
+  </si>
+  <si>
+    <t>Companies primarily involved in the production and mining of coal, related products and other consumable fuels related to the generation of energy.  Excludes companies primarily producing gases classified in the Industrial Gases sub-industry and companies primarily mining for metallurgical (coking) coal used for steel production.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -461,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -469,16 +483,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D0DFED10-96F3-4050-887F-1FCAF51531E8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58CB6E-3A5C-483C-88CA-FB864E6C9536}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -877,7 +922,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -888,90 +933,90 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -979,54 +1024,54 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1034,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1042,24 +1087,24 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -1067,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -1078,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -1089,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -1100,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -1111,10 +1156,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -1122,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -1133,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -1144,54 +1189,54 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1199,10 +1244,10 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1210,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -1221,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1232,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1243,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -1254,10 +1299,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -1265,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1276,10 +1321,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -1287,10 +1332,10 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -1298,10 +1343,10 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -1309,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -1320,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -1331,10 +1376,10 @@
         <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -1342,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -1353,10 +1398,10 @@
         <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1364,10 +1409,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1375,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -1386,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -1397,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -1408,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1419,10 +1464,10 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
@@ -1430,10 +1475,10 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
@@ -1441,21 +1486,21 @@
         <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
@@ -1463,150 +1508,120 @@
         <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" t="s">
-        <v>113</v>
-      </c>
-      <c r="C64" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>15</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="64" spans="1:3" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C64" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="1" customFormat="1" ht="104.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="B65" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C65" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="66" spans="1:3" ht="247.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C66" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="273.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C67" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C68" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="69" spans="1:3" ht="247.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="C69" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C71" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="299.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C70" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C72" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="409.6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
+      <c r="C71" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/materials/specs/Green_Taxo.xlsx
+++ b/materials/specs/Green_Taxo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlorans\Documents\ClimateInvestingNLP\materials\specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EB36A-1FCF-4A76-A2B4-22A5F518FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2A1F38-5566-44C2-BAB6-E909995EE836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{4FC0EE15-120B-4526-9ADE-E0ED7501A6A5}"/>
   </bookViews>
@@ -837,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A58CB6E-3A5C-483C-88CA-FB864E6C9536}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
